--- a/DataTransferer.Test/TestFiles/testFile.xlsx
+++ b/DataTransferer.Test/TestFiles/testFile.xlsx
@@ -1,17 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u589242/Documents/Developer/SpendingsDataTransferer/SpendingsDataTransferer/DataTransferer.Test/TestFiles/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{AE0058D8-0E37-1D43-8284-D89759A582B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="5480" tabRatio="658" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView windowWidth="24041" windowHeight="9867" tabRatio="658"/>
   </bookViews>
   <sheets>
     <sheet name="Listopad2017" sheetId="1" r:id="rId1"/>
@@ -25,15 +18,7 @@
     <definedName name="Tabela_Sierpien">#REF!</definedName>
     <definedName name="Tablea_czerwiec">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -76,6 +61,9 @@
     <t>Fast food</t>
   </si>
   <si>
+    <t>29-30-2017</t>
+  </si>
+  <si>
     <t>Bilet</t>
   </si>
   <si>
@@ -110,21 +98,22 @@
   </si>
   <si>
     <t>Pizza</t>
-  </si>
-  <si>
-    <t>29-30-2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    <numFmt numFmtId="171" formatCode="dd/mm/yy\ h:mm;@"/>
-    <numFmt numFmtId="173" formatCode="yyyy/mm/dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,19 +125,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,29 +482,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,25 +1048,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D266"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>43028</v>
       </c>
@@ -482,7 +1093,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>43028</v>
       </c>
@@ -496,7 +1107,7 @@
         <v>119.95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43033</v>
       </c>
@@ -507,11 +1118,11 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43035</v>
       </c>
@@ -522,7 +1133,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>43037</v>
       </c>
@@ -536,43 +1147,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>43039</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2">
         <v>5.65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>43039</v>
       </c>
@@ -584,304 +1195,63 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="D15" s="2">
         <f>2*4.99</f>
         <v>9.98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>85535.260416666672</v>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>40976.2604166667</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>36323.573923611111</v>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5">
+        <v>36323.5739236111</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -895,12 +1265,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>43073</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -909,7 +1279,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43074</v>
       </c>
@@ -920,12 +1290,12 @@
         <v>22.46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>43075</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -934,7 +1304,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43076</v>
       </c>
@@ -945,7 +1315,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>43076</v>
       </c>
@@ -956,12 +1326,12 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>43076</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -970,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>43077</v>
       </c>
@@ -981,15 +1351,15 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>43078</v>
       </c>
@@ -1000,12 +1370,12 @@
         <v>44.57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>43078</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1014,12 +1384,12 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>43079</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1028,23 +1398,23 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>43099</v>
       </c>
@@ -1055,156 +1425,40 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,16 +1472,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>43101</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1236,12 +1490,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43102</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1250,26 +1504,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>43102</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>74.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43102</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1278,19 +1532,19 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>43103</v>
       </c>
@@ -1301,12 +1555,12 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>43103</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1315,170 +1569,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTransferer.Test/TestFiles/testFile.xlsx
+++ b/DataTransferer.Test/TestFiles/testFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="24041" windowHeight="9867" tabRatio="658"/>
+    <workbookView windowWidth="24041" windowHeight="9867" tabRatio="658" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Listopad2017" sheetId="1" r:id="rId1"/>
@@ -105,15 +105,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="dd/mm/yy\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yy\ h:mm;@"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,44 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -138,14 +176,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,127 +272,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -289,67 +282,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,25 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,85 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,15 +473,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,47 +487,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +510,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -583,158 +576,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,8 +1049,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1152,7 +1145,9 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>43261</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
@@ -1245,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/DataTransferer.Test/TestFiles/testFile.xlsx
+++ b/DataTransferer.Test/TestFiles/testFile.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Data</t>
   </si>
@@ -107,13 +107,13 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="177" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -144,61 +151,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,65 +190,95 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,6 +295,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,12 +319,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,151 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +480,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,24 +503,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,26 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,6 +533,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,127 +562,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,30 +709,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1155,7 +1163,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2"/>
@@ -1202,7 +1210,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>40976.2604166667</v>
       </c>
       <c r="D17" s="2"/>
@@ -1212,7 +1220,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>36323.5739236111</v>
       </c>
       <c r="D19" s="2"/>
@@ -1238,13 +1246,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1295,17 +1303,13 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
-        <v>13.5</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43076</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="2">
         <v>27.2</v>
       </c>
@@ -1331,9 +1335,7 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
@@ -1358,12 +1360,7 @@
       <c r="A12" s="1">
         <v>43078</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>44.57</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
@@ -1372,9 +1369,7 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C13"/>
       <c r="D13" s="2">
         <v>5.99</v>
       </c>
@@ -1393,9 +1388,10 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="D15" s="2"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
